--- a/testdata/testdatateam8.xlsx
+++ b/testdata/testdatateam8.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhara\Desktop\DollarDays_30Aug\DollarDays_30Aug\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ECB316-AECA-4834-9EFA-9D12AD658901}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779E6591-DBEE-4818-97CA-C754C3DB1FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>TCID</t>
   </si>
@@ -109,13 +112,66 @@
   </si>
   <si>
     <t>85007</t>
+  </si>
+  <si>
+    <t>invalid Login data</t>
+  </si>
+  <si>
+    <t>shilpasupradeep@gmail.com</t>
+  </si>
+  <si>
+    <t>RG9sbGFyZGF5czEyMw==</t>
+  </si>
+  <si>
+    <t>Null us data</t>
+  </si>
+  <si>
+    <t>srikanthtesting100@gmail.com</t>
+  </si>
+  <si>
+    <t>cGFzc3dvcmQxMjM</t>
+  </si>
+  <si>
+    <t>valid login data</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Login data</t>
+  </si>
+  <si>
+    <t>cGFzc3dvcmQxMjM=</t>
+  </si>
+  <si>
+    <t>Verify Donate Today</t>
+  </si>
+  <si>
+    <t>Verify Search Button</t>
+  </si>
+  <si>
+    <t>Validate the links under  "Connect With Us" section and privacy links on the footer of the page</t>
+  </si>
+  <si>
+    <t>Validate the links under  "Customer Service" section on the footer
+ of the page</t>
+  </si>
+  <si>
+    <t>Validate the links under  "Our Company" section on the footer
+ of the page</t>
+  </si>
+  <si>
+    <t>Validate the links under "Explore Our Blog" section</t>
+  </si>
+  <si>
+    <t>Validate the links under "Recommended for You" section</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +193,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +241,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95A7BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -160,11 +262,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,8 +381,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{BF314408-AD32-4A31-B029-27E8CF7493DE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -521,14 +738,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D96481-C251-452A-B908-D34EFF1466AF}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45">
+      <c r="A5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{377CD15C-A7ED-441A-AB00-C0CF567D25B9}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{01502C12-BC3B-4EB9-AA64-6A7D794D1A13}"/>
+    <hyperlink ref="D4:D6" r:id="rId3" display="srikanthtesting100@gmail.com" xr:uid="{23D2FE5B-39CF-46BC-8FCE-86EA07570951}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D11CDCB-AC07-4F10-824D-185C13A57FCD}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5E61CB2A-54BE-4A64-A558-40976CBDA0AC}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{08799435-C47D-4FFC-B69E-B8007444E7AD}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{61E68F36-1A05-4B83-A400-40FB76B3473A}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{586EB03B-F4EB-4831-9A5D-888FDA6BD4A4}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{B6F4FB8E-AB4E-46C5-9BBC-C1DA89541688}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2394008-99EF-440E-B03D-D9070CBBB468}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3A572452-A59F-4BF8-A96F-1DEE0B13890E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
@@ -537,7 +1089,7 @@
     <col min="6" max="6" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -571,7 +1123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -582,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -593,7 +1145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -604,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -615,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -632,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -640,7 +1192,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="72.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -648,7 +1200,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +1220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -682,7 +1234,7 @@
         <v>8888888</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -693,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -710,7 +1262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2138BA43-D9FE-4D02-BE14-654A78B66661}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -718,7 +1270,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" bestFit="1" customWidth="1"/>
@@ -727,7 +1279,7 @@
     <col min="6" max="6" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +1299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -761,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -772,7 +1324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -783,7 +1335,7 @@
         <v>222222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -794,7 +1346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -805,7 +1357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
